--- a/Fig_tab_map/tables.xlsx
+++ b/Fig_tab_map/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Target</t>
   </si>
@@ -43,9 +43,6 @@
     <t>The National Long Term Vision 2030</t>
   </si>
   <si>
-    <t>Check if this is possible</t>
-  </si>
-  <si>
     <t>Sustainably intensify land use without converting additional land area into agricultural land</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>National Agriculture Investment Plan (2014-2018)</t>
   </si>
   <si>
-    <t>Project to 2050</t>
-  </si>
-  <si>
     <t>10%+ share of GDP is agriculture by 2021</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>By 2050 double yields by means of diversification, while ensuring food security</t>
   </si>
   <si>
-    <t>By 2050 have a diversified agriculural economic sector</t>
-  </si>
-  <si>
     <t>By 2050, increase productivity while maintaining a low ecological footprint</t>
   </si>
   <si>
@@ -194,6 +185,42 @@
   </si>
   <si>
     <t>Exogenous yield increase?</t>
+  </si>
+  <si>
+    <t>Target for 2050</t>
+  </si>
+  <si>
+    <t>Unclear how to implement</t>
+  </si>
+  <si>
+    <t>Not possible to implement with GLOBIOM</t>
+  </si>
+  <si>
+    <t>Average crop yield (2010-2013) x 2</t>
+  </si>
+  <si>
+    <t>Average crop exports (2010-2013) x 2</t>
+  </si>
+  <si>
+    <t>Irrigated area (2002) x 3</t>
+  </si>
+  <si>
+    <t>GLOBIOM only models full control irrigation</t>
+  </si>
+  <si>
+    <t>Agricultural land x 1</t>
+  </si>
+  <si>
+    <t>Seems redundant as there is already a yield target</t>
+  </si>
+  <si>
+    <t>To be added</t>
+  </si>
+  <si>
+    <t>By 2050 have a diversified agricultural economic sector</t>
+  </si>
+  <si>
+    <t>Only includes crops modelled by GLOBIOM</t>
   </si>
 </sst>
 </file>
@@ -536,34 +563,34 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -573,20 +600,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A12:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,56 +621,71 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -651,40 +693,43 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -710,10 +755,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -721,121 +766,121 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/tables.xlsx
+++ b/Fig_tab_map/tables.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Target</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Agricultural, fisheries, and fishing export value of $931M by 2021 (7.8% of total export value)</t>
   </si>
   <si>
-    <t>INDC</t>
-  </si>
-  <si>
     <t>Various emissions targets for 2030</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Target for 2050</t>
   </si>
   <si>
-    <t>Unclear how to implement</t>
-  </si>
-  <si>
     <t>Not possible to implement with GLOBIOM</t>
   </si>
   <si>
@@ -214,20 +208,53 @@
     <t>Seems redundant as there is already a yield target</t>
   </si>
   <si>
-    <t>To be added</t>
-  </si>
-  <si>
     <t>By 2050 have a diversified agricultural economic sector</t>
   </si>
   <si>
     <t>Only includes crops modelled by GLOBIOM</t>
+  </si>
+  <si>
+    <t>National Communication, INDC</t>
+  </si>
+  <si>
+    <t>Extrapolation of scenario</t>
+  </si>
+  <si>
+    <t>Questions on the BAU</t>
+  </si>
+  <si>
+    <t>Need to ask stakeholders for quantified target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase livestock population to 6,000,000 by 2030 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to ask stakeholders for quantified target. </t>
+  </si>
+  <si>
+    <t>Related stakeholder statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-harvest losses are reduced to 5% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60% of arable land uses drought-resistant crops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Increase the adoption of CSA practices by at least 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Double yields for maize &amp; food legumes for small-holder farms</t>
+  </si>
+  <si>
+    <t>Assume same value for 2050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +264,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -263,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,34 +598,34 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -600,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -629,35 +664,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,10 +714,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,18 +753,32 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -740,147 +789,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
